--- a/22/Before_Soc_EEH2.xlsx
+++ b/22/Before_Soc_EEH2.xlsx
@@ -578,130 +578,130 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06383620277337092</v>
+        <v>0.06383620277333076</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5506050034778561</v>
+        <v>0.5506050034786361</v>
       </c>
       <c r="E2" t="n">
-        <v>2.673027037107802</v>
+        <v>2.673027037107303</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166288340081489</v>
+        <v>3.166288340082239</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1149853945772904</v>
+        <v>0.114985394577213</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1565190891872646</v>
+        <v>0.1565190891877062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7721870405975689</v>
+        <v>0.7721870405976519</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3809138738632346</v>
+        <v>0.3809138738632417</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3432507482129664</v>
+        <v>0.3432507482128909</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2333537212028448</v>
+        <v>0.2333537212027529</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2106126094448522</v>
+        <v>0.2106126094448434</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5250785211200885</v>
+        <v>0.5250785211199572</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5951976674906414</v>
+        <v>0.5951976674903194</v>
       </c>
       <c r="P2" t="n">
-        <v>3.289221998855604</v>
+        <v>3.289221998855443</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.75462036851794</v>
+        <v>5.754620368517355</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3928429001193033</v>
+        <v>0.3928429001194305</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2711383238514061</v>
+        <v>0.2711383238528404</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2742976844077432</v>
+        <v>0.2742976844081319</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4058050405166409</v>
+        <v>0.4058050405166189</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3093580495336914</v>
+        <v>0.3093580495337556</v>
       </c>
       <c r="W2" t="n">
-        <v>9.185776743078073</v>
+        <v>9.185776743076383</v>
       </c>
       <c r="X2" t="n">
-        <v>12.74757561276635</v>
+        <v>12.74757561276695</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1435249486679095</v>
+        <v>0.1435249486680042</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2374167486993589</v>
+        <v>0.2374167486991532</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5047128382364677</v>
+        <v>0.5047128382366703</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5169068377934115</v>
+        <v>0.5169068377937621</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1553974128337889</v>
+        <v>0.1553974128337623</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3457076708448861</v>
+        <v>0.345707670844939</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.05440628285662277</v>
+        <v>0.05440628285679901</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.09796048475418997</v>
+        <v>0.0979604847543961</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.283050272356912</v>
+        <v>0.2830502723567352</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.5191356204577754</v>
+        <v>0.5191356204579454</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.2466564472756324</v>
+        <v>0.2466564472756521</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.05925306605866587</v>
+        <v>0.05925306605884902</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1173171658568792</v>
+        <v>0.1173171658566493</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.4359198412646104</v>
+        <v>0.4359198412648313</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.059322353383016</v>
+        <v>2.059322353383348</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.173129327212789</v>
+        <v>1.173129327212864</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5563818481124235</v>
+        <v>0.5563818481124275</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.4817751062911726</v>
+        <v>0.4817751062912403</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.281080215336102</v>
+        <v>1.281080215336051</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.09745735441042894</v>
+        <v>0.09745735441024765</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -709,130 +709,130 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1041721489231548</v>
+        <v>0.1041721489230855</v>
       </c>
       <c r="D3" t="n">
-        <v>3.61582609498479</v>
+        <v>3.6158260949848</v>
       </c>
       <c r="E3" t="n">
-        <v>6.253277272719282</v>
+        <v>6.253277272719235</v>
       </c>
       <c r="F3" t="n">
-        <v>2.260964513652628</v>
+        <v>2.260964513652934</v>
       </c>
       <c r="G3" t="n">
-        <v>2.52544923486475</v>
+        <v>2.52544923486458</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4472720144486376</v>
+        <v>0.4472720144483904</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5784389922406959</v>
+        <v>0.5784389922379195</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7307995858774007</v>
+        <v>0.7307995858778424</v>
       </c>
       <c r="K3" t="n">
-        <v>5.508054147696685</v>
+        <v>5.508054147696701</v>
       </c>
       <c r="L3" t="n">
-        <v>5.605128995988083</v>
+        <v>5.605128995988609</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1639909331077328</v>
+        <v>0.1639909331078596</v>
       </c>
       <c r="N3" t="n">
-        <v>1.459988650761677</v>
+        <v>1.459988650761703</v>
       </c>
       <c r="O3" t="n">
-        <v>0.994203149806096</v>
+        <v>0.9942031498060758</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3698808708924318</v>
+        <v>0.3698808708924651</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.388026529380392</v>
+        <v>1.388026529380075</v>
       </c>
       <c r="R3" t="n">
-        <v>1.534762758417836</v>
+        <v>1.534762758417818</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9403780151990285</v>
+        <v>0.9403780151990182</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6170148808794252</v>
+        <v>0.6170148808794013</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5892436430553336</v>
+        <v>0.5892436430552035</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4954727217177191</v>
+        <v>0.4954727217177732</v>
       </c>
       <c r="W3" t="n">
-        <v>7.585336201034366</v>
+        <v>7.585336201034613</v>
       </c>
       <c r="X3" t="n">
-        <v>8.217951662548787</v>
+        <v>8.217951662548984</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2616709497073284</v>
+        <v>0.2616709497073937</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2252166010568657</v>
+        <v>0.2252166010568855</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3678538333693293</v>
+        <v>0.3678538333694578</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.339394944679688</v>
+        <v>0.3393949446795813</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2752104412473003</v>
+        <v>0.2752104412472721</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2877635553451018</v>
+        <v>0.2877635553451665</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.08820845537463019</v>
+        <v>0.08820845537467371</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5451590637756203</v>
+        <v>0.5451590637756709</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.8726733082484407</v>
+        <v>0.8726733082485523</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.06409816290272</v>
+        <v>1.064098162901967</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3524859553536385</v>
+        <v>0.3524859553536902</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.4826571573503516</v>
+        <v>0.482657157351776</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.133233397688725</v>
+        <v>1.133233397688594</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.8639760603533133</v>
+        <v>0.8639760603534231</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1035371897110449</v>
+        <v>0.1035371897110211</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.2270083204721547</v>
+        <v>0.2270083204718235</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.4790457090760469</v>
+        <v>0.4790457090758828</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.3572464750187397</v>
+        <v>0.3572464750188324</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5.718467945012517</v>
+        <v>5.718467945012478</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1325765207619296</v>
+        <v>0.1325765207620986</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -840,130 +840,130 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07993663932562416</v>
+        <v>0.07993663932589645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4975382794466485</v>
+        <v>0.4975382794467544</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8207792682411079</v>
+        <v>0.8207792682412044</v>
       </c>
       <c r="F4" t="n">
-        <v>0.310586624096958</v>
+        <v>0.310586624096976</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3767650166606408</v>
+        <v>0.376765016660525</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4280195148337741</v>
+        <v>0.4280195148334965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4720962725340953</v>
+        <v>0.4720962725340135</v>
       </c>
       <c r="J4" t="n">
-        <v>0.575335673537817</v>
+        <v>0.5753356735384555</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8557622786214154</v>
+        <v>0.8557622786217026</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4263828538273627</v>
+        <v>0.4263828538275111</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8622510964629341</v>
+        <v>0.8622510964629635</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7982340382137862</v>
+        <v>0.7982340382137368</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01403674542614</v>
+        <v>1.014036745426172</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5645815940949532</v>
+        <v>0.5645815940947625</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5794292205022648</v>
+        <v>0.5794292205024231</v>
       </c>
       <c r="R4" t="n">
-        <v>0.53508231048479</v>
+        <v>0.5350823104848511</v>
       </c>
       <c r="S4" t="n">
-        <v>1.282958871781265</v>
+        <v>1.282958871780841</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9889063735817044</v>
+        <v>0.9889063735815335</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6044606512874356</v>
+        <v>0.6044606512872002</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4286787409678292</v>
+        <v>0.4286787409678827</v>
       </c>
       <c r="W4" t="n">
-        <v>1.368433077397598</v>
+        <v>1.368433077397583</v>
       </c>
       <c r="X4" t="n">
-        <v>1.364130309381028</v>
+        <v>1.364130309380954</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1507246159776065</v>
+        <v>0.150724615977801</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2588015828095811</v>
+        <v>0.2588015828096063</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1002549574318147</v>
+        <v>0.1002549574320616</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3729673921647542</v>
+        <v>0.3729673921644378</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.07189462534286624</v>
+        <v>0.07189462534281051</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.030889158467303</v>
+        <v>1.030889158466967</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.277688925405024</v>
+        <v>3.277688925404871</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.314278530509947</v>
+        <v>1.314278530509951</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.9221057666901061</v>
+        <v>0.9221057666895034</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8783125363865821</v>
+        <v>0.8783125363870926</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.3121496004178676</v>
+        <v>0.3121496004176527</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2427585068335897</v>
+        <v>0.2427585068338751</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5044672666857641</v>
+        <v>0.5044672666857272</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1729656754511282</v>
+        <v>0.1729656754507296</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.3793455715245261</v>
+        <v>0.3793455715245632</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0986570486497234</v>
+        <v>0.09865704864996851</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1590251827770723</v>
+        <v>0.1590251827770378</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.2360116128995131</v>
+        <v>0.2360116128993242</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.31012885199294</v>
+        <v>1.310128851992893</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1671430389284965</v>
+        <v>0.1671430389283804</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -971,130 +971,130 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06570078177940755</v>
+        <v>0.06570078177953191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.296575106324765</v>
+        <v>0.2965751063263358</v>
       </c>
       <c r="E5" t="n">
-        <v>0.526729113411497</v>
+        <v>0.5267291134108625</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1239560873402572</v>
+        <v>0.1239560873401991</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09509305258322552</v>
+        <v>0.09509305258320506</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2152195988568552</v>
+        <v>0.2152195988568618</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3806868450926763</v>
+        <v>0.3806868450926475</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1735897260515127</v>
+        <v>0.1735897260518018</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1590645776769468</v>
+        <v>0.1590645776766621</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581797891731309</v>
+        <v>0.05581797891734157</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2101442479074812</v>
+        <v>0.2101442479072782</v>
       </c>
       <c r="N5" t="n">
-        <v>1.372847692532894</v>
+        <v>1.37284769253309</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52527176131198</v>
+        <v>1.525271761312846</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3671989696425327</v>
+        <v>0.3671989696427321</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7931061364380819</v>
+        <v>0.7931061364380503</v>
       </c>
       <c r="R5" t="n">
-        <v>0.61058618666206</v>
+        <v>0.6105861866620733</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2886742898044666</v>
+        <v>0.2886742898040822</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1520323281372675</v>
+        <v>0.1520323281372695</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1482483046933575</v>
+        <v>0.1482483046930464</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06572925996781945</v>
+        <v>0.065729259967929</v>
       </c>
       <c r="W5" t="n">
-        <v>8.234318781909012</v>
+        <v>8.234318781909041</v>
       </c>
       <c r="X5" t="n">
-        <v>8.947662302675328</v>
+        <v>8.947662302676308</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06976669914057616</v>
+        <v>0.06976669914076175</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6383960060213832</v>
+        <v>0.638396006021495</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2140646271339965</v>
+        <v>0.2140646271357378</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3772366505033926</v>
+        <v>0.377236650503303</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4853614235040806</v>
+        <v>0.4853614235040372</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4709358965951725</v>
+        <v>0.4709358965951237</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3278084828681621</v>
+        <v>0.3278084828680792</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2921501242545202</v>
+        <v>0.2921501242542348</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7788752124312999</v>
+        <v>0.7788752124308019</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.469570939300629</v>
+        <v>4.469570939300575</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.165358471439411</v>
+        <v>0.1653584714394344</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.09654759770036284</v>
+        <v>0.09654759769994362</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.92357521115891</v>
+        <v>1.923575211159112</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2124110321047145</v>
+        <v>0.2124110321043669</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0673909544812852</v>
+        <v>0.06739095448147057</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1031256934627567</v>
+        <v>0.1031256934621386</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1462757102060256</v>
+        <v>0.1462757102059862</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.09106289118893444</v>
+        <v>0.09106289118922388</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.3489960289675325</v>
+        <v>0.3489960289697861</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.05801494448642745</v>
+        <v>0.0580149444863942</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1102,130 +1102,130 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1726461579729707</v>
+        <v>0.1726461579728418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8156453638189325</v>
+        <v>0.8156453638192905</v>
       </c>
       <c r="E6" t="n">
-        <v>7.64814844021035</v>
+        <v>7.648148440210397</v>
       </c>
       <c r="F6" t="n">
-        <v>9.542407849010191</v>
+        <v>9.542407849010178</v>
       </c>
       <c r="G6" t="n">
-        <v>2.678481672858636</v>
+        <v>2.678481672858582</v>
       </c>
       <c r="H6" t="n">
-        <v>3.859238767706496</v>
+        <v>3.85923876770654</v>
       </c>
       <c r="I6" t="n">
-        <v>2.422097940930729</v>
+        <v>2.422097940930873</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3810270571437328</v>
+        <v>0.3810270571436771</v>
       </c>
       <c r="K6" t="n">
-        <v>1.32891223897457</v>
+        <v>1.328912238974547</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8898062797772988</v>
+        <v>0.8898062797770746</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7462333697574862</v>
+        <v>0.7462333697574665</v>
       </c>
       <c r="N6" t="n">
-        <v>1.129230809833168</v>
+        <v>1.129230809833148</v>
       </c>
       <c r="O6" t="n">
-        <v>2.806860687451703</v>
+        <v>2.806860687451681</v>
       </c>
       <c r="P6" t="n">
-        <v>2.636900131526035</v>
+        <v>2.636900131526137</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8645040162607336</v>
+        <v>0.8645040162605582</v>
       </c>
       <c r="R6" t="n">
-        <v>1.340888180647183</v>
+        <v>1.340888180647188</v>
       </c>
       <c r="S6" t="n">
-        <v>1.204167112042404</v>
+        <v>1.204167112042351</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5661789690378881</v>
+        <v>0.5661789690378962</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5571765901609494</v>
+        <v>0.5571765901609343</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7031438948407843</v>
+        <v>0.7031438948407335</v>
       </c>
       <c r="W6" t="n">
-        <v>0.644584682199926</v>
+        <v>0.6445846822002176</v>
       </c>
       <c r="X6" t="n">
-        <v>1.32739562090705</v>
+        <v>1.327395620906964</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.232342909977493</v>
+        <v>1.232342909977499</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.9421634627567088</v>
+        <v>0.9421634627568238</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.231246318446775</v>
+        <v>1.231246318446746</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.886699609847217</v>
+        <v>2.886699609847319</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8323473701107441</v>
+        <v>0.8323473701104914</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.599995333407354</v>
+        <v>1.599995333407296</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.03541188505082</v>
+        <v>1.035411885050707</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6133433105510032</v>
+        <v>0.6133433105510558</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.159965146866502</v>
+        <v>1.159965146866609</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.654475028674279</v>
+        <v>8.654475028674826</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.554064826572718</v>
+        <v>2.554064826573143</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.391049810322825</v>
+        <v>3.391049810322521</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.040725598522394</v>
+        <v>7.040725598522453</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.7422833268798259</v>
+        <v>0.7422833268797917</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9480910171143639</v>
+        <v>0.9480910171143182</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9987835560326382</v>
+        <v>0.9987835560325706</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.062195365073701</v>
+        <v>4.062195365073607</v>
       </c>
       <c r="AP6" t="n">
-        <v>7.781592943863175</v>
+        <v>7.781592943863326</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.828634920654282</v>
+        <v>1.828634920654124</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.09756810314884265</v>
+        <v>0.09756810314870906</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1233,130 +1233,130 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1099377426126068</v>
+        <v>0.1099377426126773</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3670472225300847</v>
+        <v>0.3670472225299687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9639282547412549</v>
+        <v>0.963928254741338</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7368066005659086</v>
+        <v>0.7368066005661271</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8858342297141779</v>
+        <v>0.8858342297143251</v>
       </c>
       <c r="H7" t="n">
-        <v>1.715722320041198</v>
+        <v>1.715722320041447</v>
       </c>
       <c r="I7" t="n">
-        <v>1.64224022947949</v>
+        <v>1.642240229479624</v>
       </c>
       <c r="J7" t="n">
-        <v>2.693406890073152</v>
+        <v>2.693406890072596</v>
       </c>
       <c r="K7" t="n">
-        <v>1.131605417613954</v>
+        <v>1.131605417614273</v>
       </c>
       <c r="L7" t="n">
-        <v>1.952977510458935</v>
+        <v>1.952977510460635</v>
       </c>
       <c r="M7" t="n">
-        <v>1.958849179079196</v>
+        <v>1.958849179078638</v>
       </c>
       <c r="N7" t="n">
-        <v>1.405491414866492</v>
+        <v>1.405491414866374</v>
       </c>
       <c r="O7" t="n">
-        <v>1.498510870948579</v>
+        <v>1.49851087094855</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7955076105448087</v>
+        <v>0.7955076105446863</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.090453340290943</v>
+        <v>1.090453340291207</v>
       </c>
       <c r="R7" t="n">
-        <v>1.148742955677383</v>
+        <v>1.148742955677286</v>
       </c>
       <c r="S7" t="n">
-        <v>1.197734231415405</v>
+        <v>1.197734231415412</v>
       </c>
       <c r="T7" t="n">
-        <v>1.491635404006242</v>
+        <v>1.49163540400601</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7084196915872724</v>
+        <v>0.7084196915874765</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6744324136528306</v>
+        <v>0.674432413652966</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14120192827963</v>
+        <v>1.141201928279555</v>
       </c>
       <c r="X7" t="n">
-        <v>1.518354512566826</v>
+        <v>1.518354512566799</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5415760825845052</v>
+        <v>0.541576082584469</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.811666145686935</v>
+        <v>1.811666145687119</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.091876522242466</v>
+        <v>1.091876522243339</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8395709258390542</v>
+        <v>0.8395709258390976</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6351544224392671</v>
+        <v>0.6351544224394201</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.8353739238322474</v>
+        <v>0.8353739238326459</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.313073511762715</v>
+        <v>1.313073511762469</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8621976656181959</v>
+        <v>0.8621976656180859</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9028816179861158</v>
+        <v>0.9028816179858493</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.020411012478831</v>
+        <v>4.020411012478528</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7749500589113099</v>
+        <v>0.7749500589113898</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.24776798714661</v>
+        <v>1.247767987145623</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.7764425051275117</v>
+        <v>0.7764425051262629</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.6491931234044517</v>
+        <v>0.6491931234043373</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8049960147661654</v>
+        <v>0.8049960147663822</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.618705648837107</v>
+        <v>1.618705648837196</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.042965165261587</v>
+        <v>1.042965165262542</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.5821147287669683</v>
+        <v>0.5821147287669812</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0854640559540169</v>
+        <v>0.08546405595380928</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.08601885908671406</v>
+        <v>0.08601885908677039</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -1364,130 +1364,130 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05961121218619485</v>
+        <v>0.05961121218601853</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5455007853487963</v>
+        <v>0.5455007853487962</v>
       </c>
       <c r="E8" t="n">
-        <v>4.516932427472661</v>
+        <v>4.516932427472732</v>
       </c>
       <c r="F8" t="n">
-        <v>1.847363289680628</v>
+        <v>1.84736328968055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3807519489153783</v>
+        <v>0.3807519489149286</v>
       </c>
       <c r="H8" t="n">
-        <v>0.638882475136216</v>
+        <v>0.6388824751362154</v>
       </c>
       <c r="I8" t="n">
-        <v>0.957057857365409</v>
+        <v>0.9570578573657149</v>
       </c>
       <c r="J8" t="n">
-        <v>1.108096017880212</v>
+        <v>1.108096017880234</v>
       </c>
       <c r="K8" t="n">
-        <v>0.632512252278604</v>
+        <v>0.6325122522779671</v>
       </c>
       <c r="L8" t="n">
-        <v>0.974609160556125</v>
+        <v>0.9746091605566891</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9510972517811259</v>
+        <v>0.9510972517815749</v>
       </c>
       <c r="N8" t="n">
-        <v>3.542852440169232</v>
+        <v>3.542852440169277</v>
       </c>
       <c r="O8" t="n">
-        <v>4.374925828002051</v>
+        <v>4.374925828002111</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4160669673951785</v>
+        <v>0.4160669673950638</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09143399881732975</v>
+        <v>0.09143399881756088</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07957450489625502</v>
+        <v>0.07957450489617449</v>
       </c>
       <c r="S8" t="n">
-        <v>3.748761746524823</v>
+        <v>3.7487617465245</v>
       </c>
       <c r="T8" t="n">
-        <v>3.060241088696998</v>
+        <v>3.060241088697249</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7155958092008874</v>
+        <v>0.7155958092008144</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8681001913232859</v>
+        <v>0.8681001913226424</v>
       </c>
       <c r="W8" t="n">
-        <v>1.86697619347559</v>
+        <v>1.866976193476419</v>
       </c>
       <c r="X8" t="n">
-        <v>2.304552498425911</v>
+        <v>2.304552498424754</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1179586393584662</v>
+        <v>0.1179586393584834</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.586858373175726</v>
+        <v>0.5868583731758275</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.07825454275751083</v>
+        <v>0.07825454275758995</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2775239606003416</v>
+        <v>0.277523960600262</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.07968756181979192</v>
+        <v>0.0796875618199846</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1841700867103282</v>
+        <v>0.1841700867105585</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0833492156143384</v>
+        <v>0.08334921561429715</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1383985732806</v>
+        <v>0.1383985732804978</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1023079507047585</v>
+        <v>0.1023079507048354</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.3935995976064733</v>
+        <v>0.3935995976056171</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2036249421197562</v>
+        <v>0.2036249421196688</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1955446133241062</v>
+        <v>0.1955446133241039</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.647015550741191</v>
+        <v>1.647015550741148</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.06567650954958965</v>
+        <v>0.06567650955009088</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.06802713140834875</v>
+        <v>0.06802713140856655</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.07655293671319877</v>
+        <v>0.07655293671292107</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.07524089713376625</v>
+        <v>0.07524089713389898</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.06465602635122676</v>
+        <v>0.06465602635094952</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.228201144900312</v>
+        <v>1.228201144899823</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.04270021293720537</v>
+        <v>0.04270021293691682</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -1495,130 +1495,130 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07614577184149859</v>
+        <v>0.07614577184144754</v>
       </c>
       <c r="D9" t="n">
-        <v>6.597917109882615</v>
+        <v>6.59791710988263</v>
       </c>
       <c r="E9" t="n">
         <v>9.05233945260319</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6697064707554672</v>
+        <v>0.6697064707555495</v>
       </c>
       <c r="G9" t="n">
-        <v>2.276880010687629</v>
+        <v>2.276880010687411</v>
       </c>
       <c r="H9" t="n">
-        <v>2.504503876123992</v>
+        <v>2.504503876123797</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3607091425552845</v>
+        <v>0.3607091425552287</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3846097767012164</v>
+        <v>0.3846097767011384</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06543311221684969</v>
+        <v>0.06543311221673023</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4624404608785403</v>
+        <v>0.4624404608784069</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7245171632258023</v>
+        <v>0.7245171632258761</v>
       </c>
       <c r="N9" t="n">
-        <v>1.60436520428601</v>
+        <v>1.604365204286092</v>
       </c>
       <c r="O9" t="n">
-        <v>2.266853390089071</v>
+        <v>2.26685339008922</v>
       </c>
       <c r="P9" t="n">
-        <v>0.835430420770936</v>
+        <v>0.8354304207706886</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08260086455845586</v>
+        <v>0.08260086455879438</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0790677429516812</v>
+        <v>0.07906774295207288</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1808230659520247</v>
+        <v>0.1808230659518618</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1246326244361143</v>
+        <v>0.1246326244361745</v>
       </c>
       <c r="U9" t="n">
-        <v>0.31214232784717</v>
+        <v>0.312142327847476</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3772879235674704</v>
+        <v>0.3772879235674</v>
       </c>
       <c r="W9" t="n">
-        <v>81.41580018595472</v>
+        <v>81.41580018595717</v>
       </c>
       <c r="X9" t="n">
-        <v>7.010867328386751</v>
+        <v>7.010867328386848</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4065539502606713</v>
+        <v>0.406553950260625</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.06960458479633411</v>
+        <v>0.06960458479714471</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.07696661955791247</v>
+        <v>0.07696661955819462</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6490847394326388</v>
+        <v>0.6490847394342444</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.754255158761393</v>
+        <v>3.75425515876145</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6944053930840259</v>
+        <v>0.6944053930839007</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6510319775573437</v>
+        <v>0.6510319775574589</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2774954184117264</v>
+        <v>0.2774954184123996</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.07510623302986358</v>
+        <v>0.07510623302982519</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.656105501257906</v>
+        <v>3.656105501258089</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.3339656771204404</v>
+        <v>0.3339656771204732</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.07769957140271926</v>
+        <v>0.07769957140244532</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1973672022104762</v>
+        <v>0.1973672022104802</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.07006346800766226</v>
+        <v>0.07006346800743493</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.034678901347522</v>
+        <v>1.034678901347379</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.1032050123906611</v>
+        <v>0.1032050123906063</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.1361330814899333</v>
+        <v>0.1361330814899721</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.278071432277121</v>
+        <v>0.2780714322770382</v>
       </c>
       <c r="AQ9" t="n">
-        <v>11.07027553892095</v>
+        <v>11.07027553892094</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.04779741200264855</v>
+        <v>0.0477974120026597</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -1626,130 +1626,130 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06707198865178693</v>
+        <v>0.06707198865158498</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07869107505477954</v>
+        <v>0.0786910750550814</v>
       </c>
       <c r="E10" t="n">
-        <v>1.059122032347745</v>
+        <v>1.059122032347179</v>
       </c>
       <c r="F10" t="n">
-        <v>2.426107830504823</v>
+        <v>2.426107830505007</v>
       </c>
       <c r="G10" t="n">
-        <v>5.01405251634875</v>
+        <v>5.014052516347918</v>
       </c>
       <c r="H10" t="n">
-        <v>3.369334191224965</v>
+        <v>3.369334191225406</v>
       </c>
       <c r="I10" t="n">
-        <v>1.863650882472159</v>
+        <v>1.863650882472515</v>
       </c>
       <c r="J10" t="n">
-        <v>1.104787386659791</v>
+        <v>1.104787386659351</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9457269724175835</v>
+        <v>0.9457269724173978</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6751133292198048</v>
+        <v>0.6751133292196143</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8820093564763047</v>
+        <v>0.8820093564761725</v>
       </c>
       <c r="N10" t="n">
-        <v>1.714744593978011</v>
+        <v>1.714744593977996</v>
       </c>
       <c r="O10" t="n">
-        <v>2.705504018724086</v>
+        <v>2.705504018723933</v>
       </c>
       <c r="P10" t="n">
-        <v>1.033482118254811</v>
+        <v>1.033482118254679</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.282361945379268</v>
+        <v>9.282361945379456</v>
       </c>
       <c r="R10" t="n">
-        <v>5.739381949310322</v>
+        <v>5.739381949310324</v>
       </c>
       <c r="S10" t="n">
-        <v>11.88436484508502</v>
+        <v>11.88436484508489</v>
       </c>
       <c r="T10" t="n">
-        <v>9.342169737293275</v>
+        <v>9.342169737293169</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7288657072455875</v>
+        <v>0.7288657072460101</v>
       </c>
       <c r="V10" t="n">
-        <v>1.148127019820518</v>
+        <v>1.148127019820427</v>
       </c>
       <c r="W10" t="n">
-        <v>5.017811878217279</v>
+        <v>5.017811878217737</v>
       </c>
       <c r="X10" t="n">
-        <v>7.987218440524735</v>
+        <v>7.987218440523665</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.806623476842327</v>
+        <v>1.806623476842645</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.912963301968965</v>
+        <v>1.912963301968986</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.4954002664832575</v>
+        <v>0.4954002664832306</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7617657294969238</v>
+        <v>0.7617657294970553</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.408280336305997</v>
+        <v>1.408280336306176</v>
       </c>
       <c r="AD10" t="n">
-        <v>30.45197269850726</v>
+        <v>30.45197269850635</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.453765056137352</v>
+        <v>2.45376505613847</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.616743348774899</v>
+        <v>1.616743348774719</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.50656109153723</v>
+        <v>1.506561091537653</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.11620212464074</v>
+        <v>1.116202124640833</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.2282241300416445</v>
+        <v>0.2282241300417197</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.286887362783746</v>
+        <v>1.286887362784096</v>
       </c>
       <c r="AK10" t="n">
-        <v>5.224671947054408</v>
+        <v>5.22467194705475</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.8535699956673263</v>
+        <v>0.8535699956678588</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.2554421318901128</v>
+        <v>0.2554421318901427</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.112457264036576</v>
+        <v>1.112457264036277</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.024331031866001</v>
+        <v>2.024331031866002</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.3507689765617654</v>
+        <v>0.3507689765614222</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5.445193139523606</v>
+        <v>5.445193139523468</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.07106653840439359</v>
+        <v>0.07106653840422822</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -1757,130 +1757,130 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08525706412128187</v>
+        <v>0.08525706412103709</v>
       </c>
       <c r="D11" t="n">
-        <v>4.489580337855711</v>
+        <v>4.489580337855111</v>
       </c>
       <c r="E11" t="n">
-        <v>14.30087116660171</v>
+        <v>14.30087116660031</v>
       </c>
       <c r="F11" t="n">
-        <v>11.73477584219236</v>
+        <v>11.73477584219255</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4913188768085446</v>
+        <v>0.4913188768085885</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5756407125367518</v>
+        <v>0.5756407125355814</v>
       </c>
       <c r="I11" t="n">
-        <v>1.615234415546644</v>
+        <v>1.615234415547479</v>
       </c>
       <c r="J11" t="n">
-        <v>5.284135594069359</v>
+        <v>5.284135594070173</v>
       </c>
       <c r="K11" t="n">
-        <v>6.005936137519789</v>
+        <v>6.005936137518686</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6387505219864</v>
+        <v>2.638750521986497</v>
       </c>
       <c r="M11" t="n">
-        <v>3.207170776912504</v>
+        <v>3.207170776912589</v>
       </c>
       <c r="N11" t="n">
-        <v>5.982557918190585</v>
+        <v>5.982557918190773</v>
       </c>
       <c r="O11" t="n">
-        <v>8.087553694991572</v>
+        <v>8.08755369499193</v>
       </c>
       <c r="P11" t="n">
-        <v>1.017093283306871</v>
+        <v>1.017093283305705</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.072247582947958</v>
+        <v>1.072247582948519</v>
       </c>
       <c r="R11" t="n">
-        <v>1.087617990125761</v>
+        <v>1.087617990126245</v>
       </c>
       <c r="S11" t="n">
-        <v>1.052965320040274</v>
+        <v>1.052965320040259</v>
       </c>
       <c r="T11" t="n">
-        <v>1.118584630742589</v>
+        <v>1.118584630742564</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8434859986500334</v>
+        <v>0.8434859986499944</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8089305063442983</v>
+        <v>0.8089305063444185</v>
       </c>
       <c r="W11" t="n">
-        <v>7.962492236468112</v>
+        <v>7.962492236465807</v>
       </c>
       <c r="X11" t="n">
-        <v>7.185110814173248</v>
+        <v>7.185110814172512</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.770875222250192</v>
+        <v>1.770875222251304</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.220308349111816</v>
+        <v>2.220308349111895</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.8284998731205232</v>
+        <v>0.8284998731209042</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8478264160395682</v>
+        <v>0.8478264160396815</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8146390057517487</v>
+        <v>0.8146390057522012</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.194388300359293</v>
+        <v>3.194388300359097</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.077056362420796</v>
+        <v>8.077056362421505</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.227779857359796</v>
+        <v>2.227779857360552</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.52206056626153</v>
+        <v>2.522060566261821</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.32876842759756</v>
+        <v>16.32876842759681</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.210186012428569</v>
+        <v>6.210186012428194</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4.568695383542448</v>
+        <v>4.568695383542283</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.395972483092166</v>
+        <v>1.395972483092161</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.457917487519757</v>
+        <v>2.457917487519813</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.335263159483755</v>
+        <v>1.335263159483551</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.258970156564318</v>
+        <v>1.258970156564192</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.29678184215458</v>
+        <v>2.296781842154654</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.100889773386268</v>
+        <v>1.10088977338669</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7.085812235108543</v>
+        <v>7.0858122351088</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.1286112588473195</v>
+        <v>0.1286112588470806</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2041,7 @@
         <v>10.29457627166889</v>
       </c>
       <c r="D2" t="n">
-        <v>4.413486479334475</v>
+        <v>4.417065405752653</v>
       </c>
       <c r="E2" t="n">
         <v>5.666184561377289</v>
@@ -2134,7 +2134,7 @@
         <v>6.910723324473397</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.533872498877233</v>
+        <v>8.531872498877233</v>
       </c>
       <c r="AJ2" t="n">
         <v>7.278464292480916</v>
@@ -2146,7 +2146,7 @@
         <v>6.24108457078585</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.990835285777209</v>
+        <v>6.000810054395854</v>
       </c>
       <c r="AN2" t="n">
         <v>4.892505327809446</v>
@@ -2158,7 +2158,7 @@
         <v>6.881791153868734</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.038888256259169</v>
+        <v>5.041280330794912</v>
       </c>
       <c r="AR2" t="n">
         <v>10.08779686598555</v>
@@ -2196,7 +2196,7 @@
         <v>4.412908856896833</v>
       </c>
       <c r="L3" t="n">
-        <v>2.527384525792301</v>
+        <v>2.556605977488951</v>
       </c>
       <c r="M3" t="n">
         <v>6.425186429662997</v>
@@ -2345,7 +2345,7 @@
         <v>7.553453358624912</v>
       </c>
       <c r="R4" t="n">
-        <v>7.893590822473872</v>
+        <v>7.893487685021523</v>
       </c>
       <c r="S4" t="n">
         <v>7.166785754627645</v>
@@ -2357,7 +2357,7 @@
         <v>7.045839461038748</v>
       </c>
       <c r="V4" t="n">
-        <v>8.659635917705948</v>
+        <v>8.661635917705947</v>
       </c>
       <c r="W4" t="n">
         <v>5.864908187720729</v>
@@ -2381,7 +2381,7 @@
         <v>5.97727992349992</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.338983943696875</v>
+        <v>7.332848974371722</v>
       </c>
       <c r="AE4" t="n">
         <v>6.652633907714868</v>
@@ -2461,10 +2461,10 @@
         <v>7.838244332298038</v>
       </c>
       <c r="M5" t="n">
-        <v>7.597592034714697</v>
+        <v>7.605082671418816</v>
       </c>
       <c r="N5" t="n">
-        <v>4.126923866466583</v>
+        <v>4.140168899579167</v>
       </c>
       <c r="O5" t="n">
         <v>5.972193460028123</v>
@@ -2643,7 +2643,7 @@
         <v>7.180629520378728</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.103374945848815</v>
+        <v>8.09824674072061</v>
       </c>
       <c r="AE6" t="n">
         <v>8.788668100469827</v>
@@ -2682,7 +2682,7 @@
         <v>4.71793744102783</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.746532817784306</v>
+        <v>2.741885684579689</v>
       </c>
       <c r="AR6" t="n">
         <v>10.0696776720311</v>
@@ -2693,7 +2693,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>10.0742312304008</v>
+        <v>10.07374072520122</v>
       </c>
       <c r="D7" t="n">
         <v>8.397655505980891</v>
@@ -2741,7 +2741,7 @@
         <v>6.458244218979422</v>
       </c>
       <c r="S7" t="n">
-        <v>6.166993871031661</v>
+        <v>6.1629785119776</v>
       </c>
       <c r="T7" t="n">
         <v>6.96193587420221</v>
@@ -2854,7 +2854,7 @@
         <v>6.256489178052646</v>
       </c>
       <c r="M8" t="n">
-        <v>6.451103144656864</v>
+        <v>6.449529091523033</v>
       </c>
       <c r="N8" t="n">
         <v>4.270011578845836</v>
@@ -2872,7 +2872,7 @@
         <v>9.122167438277422</v>
       </c>
       <c r="S8" t="n">
-        <v>1.372656637679816</v>
+        <v>1.346456504949162</v>
       </c>
       <c r="T8" t="n">
         <v>4.527984697477843</v>
@@ -2932,13 +2932,13 @@
         <v>7.63931314833344</v>
       </c>
       <c r="AM8" t="n">
-        <v>9.092583300833693</v>
+        <v>9.096073702229853</v>
       </c>
       <c r="AN8" t="n">
         <v>7.564129167387845</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.830009847151196</v>
+        <v>9.832009847151195</v>
       </c>
       <c r="AP8" t="n">
         <v>8.15232288311838</v>
@@ -3006,7 +3006,7 @@
         <v>6.776397848332103</v>
       </c>
       <c r="T9" t="n">
-        <v>9.224075560220777</v>
+        <v>9.222340222727269</v>
       </c>
       <c r="U9" t="n">
         <v>7.810131173144812</v>
@@ -3075,10 +3075,10 @@
         <v>8.406895675409517</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.266573427929251</v>
+        <v>3.264747790088188</v>
       </c>
       <c r="AR9" t="n">
-        <v>10.25644003009932</v>
+        <v>10.25777247513597</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -3146,7 +3146,7 @@
         <v>6.590774365539753</v>
       </c>
       <c r="W10" t="n">
-        <v>2.226715462388952</v>
+        <v>2.208381493474622</v>
       </c>
       <c r="X10" t="n">
         <v>5.137571340695374</v>
@@ -3185,7 +3185,7 @@
         <v>8.748031324259346</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.726680100260922</v>
+        <v>5.70973094771855</v>
       </c>
       <c r="AK10" t="n">
         <v>6.034417462210317</v>
@@ -3223,7 +3223,7 @@
         <v>2.285637695439405</v>
       </c>
       <c r="E11" t="n">
-        <v>4.721199774073738</v>
+        <v>4.711897448492342</v>
       </c>
       <c r="F11" t="n">
         <v>4.215374641032213</v>
@@ -3498,130 +3498,130 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6787832106635776</v>
+        <v>0.6787832106624052</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6454414433361592</v>
+        <v>0.6454414433392559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5697581196005213</v>
+        <v>0.5697581196005165</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5702390193150679</v>
+        <v>0.5702390193150675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5809318973644702</v>
+        <v>0.5809318973660579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6172267904203672</v>
+        <v>0.6172267904204428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7238642281194565</v>
+        <v>0.723864228119555</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5763749570883405</v>
+        <v>0.5763749570883473</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6977436418920081</v>
+        <v>0.697743641888848</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5754690583478319</v>
+        <v>0.575469058348006</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5800315037973132</v>
+        <v>0.5800315037972908</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5796757584892964</v>
+        <v>0.5796757584892549</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6530619268640427</v>
+        <v>0.6530619268638904</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5655152853054746</v>
+        <v>0.5655152853055797</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5717702547596367</v>
+        <v>0.5717702547596369</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7317451631423503</v>
+        <v>0.7317451631422572</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6667270125590099</v>
+        <v>0.6667270125576642</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6216151249239467</v>
+        <v>0.6216151249237136</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5817361379318832</v>
+        <v>0.5817361379318819</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5634444102347037</v>
+        <v>0.5634444102347026</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6291995642471128</v>
+        <v>0.6291995642475654</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5795012916510708</v>
+        <v>0.5795012916510711</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.615782745920612</v>
+        <v>0.6157827459206374</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6367971258796968</v>
+        <v>0.6367971258797028</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6252830754105513</v>
+        <v>0.6252830754106076</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6409948093324787</v>
+        <v>0.6409948093324482</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6275756088818452</v>
+        <v>0.6275756088817933</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6369803120717331</v>
+        <v>0.63698031207173</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6479829090936032</v>
+        <v>0.6479829090851713</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6136028792623507</v>
+        <v>0.6136028792644331</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6222030736861197</v>
+        <v>0.6222030736861116</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6173110600895327</v>
+        <v>0.6173110600895311</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5891876389322335</v>
+        <v>0.5891876389322347</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6472859842424067</v>
+        <v>0.6472859842408148</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6138493618983411</v>
+        <v>0.6138493618986305</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.632950662876451</v>
+        <v>0.6329506628764425</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6036655181288847</v>
+        <v>0.603665518128886</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6102329531219142</v>
+        <v>0.6102329531219256</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5978325943932474</v>
+        <v>0.5978325943932467</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6160362420522333</v>
+        <v>0.6160362420522164</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5841091986244551</v>
+        <v>0.5841091986244548</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.7723329037049641</v>
+        <v>0.7723329037056141</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -3629,130 +3629,130 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6916981546810566</v>
+        <v>0.6916981546816635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7372326528763877</v>
+        <v>0.737232652875716</v>
       </c>
       <c r="E3" t="n">
         <v>0.5639422020496369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5959587554140168</v>
+        <v>0.5959587554144619</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5705295768359103</v>
+        <v>0.570529576835911</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5778095307761402</v>
+        <v>0.5778095307761888</v>
       </c>
       <c r="I3" t="n">
-        <v>0.580748071373721</v>
+        <v>0.5807480713737386</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5748840178856827</v>
+        <v>0.5748840178856811</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6222777563857563</v>
+        <v>0.622277756385737</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5757840739537106</v>
+        <v>0.5757840739537109</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5816886234385237</v>
+        <v>0.5816886234386066</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5776512928173094</v>
+        <v>0.5776512928166588</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6051187546918818</v>
+        <v>0.60511875469191</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6031200550652913</v>
+        <v>0.6031200550652172</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7036903825407769</v>
+        <v>0.7036903825416234</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5693629134098912</v>
+        <v>0.5693629134098915</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5950221110275749</v>
+        <v>0.5950221110275653</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5673528561683544</v>
+        <v>0.5673528561683949</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6893653751357021</v>
+        <v>0.6893653751354984</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5767677477299531</v>
+        <v>0.5767677477299414</v>
       </c>
       <c r="W3" t="n">
-        <v>0.569277133365197</v>
+        <v>0.5692771333648493</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5717985657177986</v>
+        <v>0.5717985657177987</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6237121611926565</v>
+        <v>0.6237121611926151</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6289502341502271</v>
+        <v>0.628950234150214</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6617335986416162</v>
+        <v>0.6617335986417024</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6277553340317867</v>
+        <v>0.6277553340317631</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6252151182065321</v>
+        <v>0.625215118206513</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6160029549878701</v>
+        <v>0.6160029549878742</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6745861200160863</v>
+        <v>0.674586120015441</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6344679292507831</v>
+        <v>0.6344679292507557</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6681384462687652</v>
+        <v>0.6681384462685859</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6338080608548128</v>
+        <v>0.6338080608548216</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6101340493980991</v>
+        <v>0.6101340493980953</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6313214933307963</v>
+        <v>0.6313214933307509</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6113329114725091</v>
+        <v>0.611332911472506</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6123195027504328</v>
+        <v>0.6123195027504325</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.6100767256256689</v>
+        <v>0.6100767256255044</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.6245235187553491</v>
+        <v>0.6245235187554413</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.5968594100794702</v>
+        <v>0.596859410079465</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.7031779716327969</v>
+        <v>0.7031779716281703</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5841079023344894</v>
+        <v>0.5841079023344893</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.7342112143098939</v>
+        <v>0.7342112143098879</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3760,130 +3760,130 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7030496945334691</v>
+        <v>0.7030496945310765</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6175994542421898</v>
+        <v>0.6175994542435195</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5811267668257606</v>
+        <v>0.5811267668257615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6427943887637165</v>
+        <v>0.6427943887639097</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75040141808488</v>
+        <v>0.7504014180846702</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7482644648486262</v>
+        <v>0.7482644648485343</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6711546674636519</v>
+        <v>0.6711546674634786</v>
       </c>
       <c r="J4" t="n">
-        <v>0.615999055838198</v>
+        <v>0.6159990558383092</v>
       </c>
       <c r="K4" t="n">
-        <v>0.572994343789539</v>
+        <v>0.572994343789486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6236154648227374</v>
+        <v>0.6236154648222783</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7003446197156825</v>
+        <v>0.7003446197157056</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7139761379947771</v>
+        <v>0.7139761379948192</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6205375204180962</v>
+        <v>0.6205375204181748</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6064128123179034</v>
+        <v>0.6064128123178842</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7224807496547535</v>
+        <v>0.7224807496543746</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5803360871878265</v>
+        <v>0.5803360871877949</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7227937576973027</v>
+        <v>0.7227937576978007</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5563462135859606</v>
+        <v>0.5563462135859608</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7436173274405788</v>
+        <v>0.7436173274405457</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5587041778713303</v>
+        <v>0.55870417787135</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6884173490326143</v>
+        <v>0.6884173490331672</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5747847678848209</v>
+        <v>0.5747847678848317</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6593316412845034</v>
+        <v>0.6593316412838885</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6031974823942939</v>
+        <v>0.603197482394313</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6436151506162232</v>
+        <v>0.6436151506178087</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7148105957479933</v>
+        <v>0.7148105957479965</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6674559359227165</v>
+        <v>0.6674559359221416</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6112046274095048</v>
+        <v>0.6112046274095126</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6226881359403866</v>
+        <v>0.6226881359403869</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6137355326218343</v>
+        <v>0.613735532621836</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.621685879924583</v>
+        <v>0.6216858799246613</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.625034939706527</v>
+        <v>0.625034939706571</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6620159381036766</v>
+        <v>0.6620159381038904</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.620907932670357</v>
+        <v>0.6209079326705397</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.645339603009454</v>
+        <v>0.6453396030094701</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7585025973191081</v>
+        <v>0.7585025973186432</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6676506312091173</v>
+        <v>0.6676506312091537</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6474868906510094</v>
+        <v>0.6474868906509225</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7117438007207055</v>
+        <v>0.7117438007205978</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.7074395897088153</v>
+        <v>0.7074395897077687</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.584084775570607</v>
+        <v>0.5840847755706063</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7971688580695625</v>
+        <v>0.7971688580692511</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -3891,130 +3891,130 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6939371931081598</v>
+        <v>0.6939371931106655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6636157336535624</v>
+        <v>0.6636157336513985</v>
       </c>
       <c r="E5" t="n">
-        <v>0.568070795539073</v>
+        <v>0.5680707955390641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5724809972312893</v>
+        <v>0.5724809972312028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5668213407808956</v>
+        <v>0.5668213407810223</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6773260635639213</v>
+        <v>0.6773260635630597</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5786234963591846</v>
+        <v>0.5786234963591856</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5759365732433718</v>
+        <v>0.5759365732433729</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5724434588930423</v>
+        <v>0.5724434588930931</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6804554723820926</v>
+        <v>0.6804554723860488</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6623122988717262</v>
+        <v>0.6623122988688358</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5750928939430713</v>
+        <v>0.5750928939430763</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5713412765508074</v>
+        <v>0.5713412765508012</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5594659435403129</v>
+        <v>0.5594659435402924</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7361887080460366</v>
+        <v>0.7361887080470302</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5563294416141055</v>
+        <v>0.5563294416141058</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6554768049206792</v>
+        <v>0.6554768049215787</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5583374162029088</v>
+        <v>0.5583374162027003</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7039931673047664</v>
+        <v>0.7039931673044455</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6025243866854343</v>
+        <v>0.602524386687683</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7088346106772813</v>
+        <v>0.7088346106773956</v>
       </c>
       <c r="X5" t="n">
         <v>0.5726368315850525</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7147704932300742</v>
+        <v>0.7147704932315644</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6639054848044581</v>
+        <v>0.6639054848044968</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5939436589089758</v>
+        <v>0.593943658910442</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6233204833249436</v>
+        <v>0.6233204833249566</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6270738369754476</v>
+        <v>0.6270738369754407</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6247794505192117</v>
+        <v>0.6247794505192109</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6774515075792925</v>
+        <v>0.677451507579596</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6176422671867083</v>
+        <v>0.6176422671875301</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.6173710910175092</v>
+        <v>0.6173710910175142</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6195418946154856</v>
+        <v>0.6195418946154883</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6251806398105101</v>
+        <v>0.6251806398106299</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6851128820329002</v>
+        <v>0.685112882034924</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5894188820485813</v>
+        <v>0.5894188820485801</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6276079652634301</v>
+        <v>0.6276079652630447</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.6212992893444201</v>
+        <v>0.6212992893457578</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.6471133175274735</v>
+        <v>0.6471133175285356</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.7042095180652032</v>
+        <v>0.7042095180657564</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.637879320232548</v>
+        <v>0.6378793202305393</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.5839761211907631</v>
+        <v>0.5839761211907569</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.682260871106826</v>
+        <v>0.6822608711084779</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -4022,130 +4022,130 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7319077470031703</v>
+        <v>0.7319077470028805</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5605851455285005</v>
+        <v>0.5605851455282532</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6218439310708153</v>
+        <v>0.6218439310707807</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5608292596313437</v>
+        <v>0.5608292596313438</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7391483402739037</v>
+        <v>0.739148340273538</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5690310278801297</v>
+        <v>0.5690310278801303</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6255608075923214</v>
+        <v>0.6255608075923114</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7706752788310616</v>
+        <v>0.7706752788311092</v>
       </c>
       <c r="K6" t="n">
-        <v>0.728215587640185</v>
+        <v>0.728215587640189</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7532375528709896</v>
+        <v>0.7532375528710298</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6572460891524685</v>
+        <v>0.6572460891524694</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6102723222287074</v>
+        <v>0.6102723222289042</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6520655239635161</v>
+        <v>0.6520655239635001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.586876567686386</v>
+        <v>0.5868765676863801</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7240301135079432</v>
+        <v>0.7240301135081032</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7148772008712569</v>
+        <v>0.7148772008712286</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6853975083341924</v>
+        <v>0.6853975083341266</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7302325602868689</v>
+        <v>0.7302325602868857</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7672429632046303</v>
+        <v>0.767242963204566</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7374399607808653</v>
+        <v>0.7374399607808095</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7085312991274039</v>
+        <v>0.7085312991280497</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7009984491939549</v>
+        <v>0.7009984491940573</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7140975850468151</v>
+        <v>0.714097585046805</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6277079270898582</v>
+        <v>0.6277079270898206</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7271190891786176</v>
+        <v>0.7271190891783907</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6349648412380227</v>
+        <v>0.6349648412380217</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7239495217825757</v>
+        <v>0.7239495217825087</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6114450545298641</v>
+        <v>0.6114450545298616</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7421601962010312</v>
+        <v>0.7421601962011254</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7466992005907002</v>
+        <v>0.7466992005907362</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6922808453391678</v>
+        <v>0.6922808453391561</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6223770599452676</v>
+        <v>0.622377059945269</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6068655359801657</v>
+        <v>0.6068655359801572</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6124811788366001</v>
+        <v>0.6124811788366036</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.6135389537294591</v>
+        <v>0.6135389537294587</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.7474723303185929</v>
+        <v>0.7474723303185002</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7151811898963505</v>
+        <v>0.7151811898963959</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7362742636458843</v>
+        <v>0.7362742636463773</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6035122736017583</v>
+        <v>0.6035122736017566</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6153618216807787</v>
+        <v>0.6153618216807802</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5841215959176589</v>
+        <v>0.5841215959176586</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.7242765743507881</v>
+        <v>0.7242765743508419</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -4153,130 +4153,130 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7111686473084129</v>
+        <v>0.7111686473083597</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5814357384119994</v>
+        <v>0.5814357384156713</v>
       </c>
       <c r="E7" t="n">
-        <v>0.697784481055418</v>
+        <v>0.6977844810554451</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7233914027538511</v>
+        <v>0.7233914027538105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6137401844137779</v>
+        <v>0.6137401844069376</v>
       </c>
       <c r="H7" t="n">
-        <v>0.661615040930977</v>
+        <v>0.6616150409309084</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5670381452690106</v>
+        <v>0.5670381452690132</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6034541271000711</v>
+        <v>0.6034541271000849</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5799814011488246</v>
+        <v>0.5799814011488642</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6248455857473941</v>
+        <v>0.6248455857473764</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6173709951916071</v>
+        <v>0.6173709951916141</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7345659038566815</v>
+        <v>0.7345659038568779</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6024538238655971</v>
+        <v>0.6024538238656081</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6529993187160015</v>
+        <v>0.6529993187161988</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7238598652381121</v>
+        <v>0.7238598652382411</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5860004325402695</v>
+        <v>0.5860004325402662</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7374776319162765</v>
+        <v>0.7374776319163666</v>
       </c>
       <c r="T7" t="n">
-        <v>0.57810242218215</v>
+        <v>0.5781024221821439</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5985469676865367</v>
+        <v>0.5985469676865793</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5892788876584008</v>
+        <v>0.5892788876583533</v>
       </c>
       <c r="W7" t="n">
-        <v>0.664276848353676</v>
+        <v>0.6642768483537301</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5769976023470164</v>
+        <v>0.5769976023470185</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6985523875498119</v>
+        <v>0.6985523875498658</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6249382720483609</v>
+        <v>0.6249382720483618</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7078593305202425</v>
+        <v>0.7078593305199028</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7450046042097315</v>
+        <v>0.7450046042098359</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7631897784733473</v>
+        <v>0.7631897784732998</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6889917981774466</v>
+        <v>0.6889917981773305</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7235403061017968</v>
+        <v>0.7235403061018157</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6528456864394097</v>
+        <v>0.6528456864394184</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6301259116973418</v>
+        <v>0.63012591169734</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6084069562760736</v>
+        <v>0.6084069562760754</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7223005098403483</v>
+        <v>0.7223005098404974</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7294206411874582</v>
+        <v>0.7294206411875597</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6502479209265775</v>
+        <v>0.6502479209268852</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7129923264537181</v>
+        <v>0.7129923264535878</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.704329556896071</v>
+        <v>0.704329556896106</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7418595707197885</v>
+        <v>0.7418595707197514</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.66498342938916</v>
+        <v>0.6649834293891205</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.687790609653485</v>
+        <v>0.6877906096535633</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7330208719627436</v>
+        <v>0.7330208719636079</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.6911328468379446</v>
+        <v>0.6911328468404818</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -4284,130 +4284,130 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6990268261969106</v>
+        <v>0.6990268261950501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6244973020622435</v>
+        <v>0.6244973020591952</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7616178772917463</v>
+        <v>0.7616178772917406</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5608908341338592</v>
+        <v>0.5608908341338587</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6125488504401316</v>
+        <v>0.6125488504392754</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6995485416255326</v>
+        <v>0.6995485416255401</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6831496562311578</v>
+        <v>0.6831496562310478</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5915986592004184</v>
+        <v>0.5915986592004556</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6231701167803627</v>
+        <v>0.6231701167801826</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6586613859888585</v>
+        <v>0.6586613859886187</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7563914748113956</v>
+        <v>0.7563914748112656</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5607058126423279</v>
+        <v>0.5607058126423266</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5613975891535966</v>
+        <v>0.5613975891535968</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7019651233782491</v>
+        <v>0.7019651233782305</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6478227746224292</v>
+        <v>0.6478227746225554</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7082300803126897</v>
+        <v>0.7082300803131946</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5634700907722626</v>
+        <v>0.5634700907731702</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5643418526867379</v>
+        <v>0.564341852686727</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6361451795949893</v>
+        <v>0.6361451795990294</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5629028895169715</v>
+        <v>0.5629028895169718</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6062294593716877</v>
+        <v>0.6062294593714608</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5712149375059977</v>
+        <v>0.5712149375059988</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6537902542223624</v>
+        <v>0.6537902542219901</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6116577154298717</v>
+        <v>0.6116577154298699</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.74405129571434</v>
+        <v>0.7440512957135311</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6201355643530122</v>
+        <v>0.6201355643529899</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6185440192506673</v>
+        <v>0.6185440192541576</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7785868827416139</v>
+        <v>0.7785868827415752</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6891770062618612</v>
+        <v>0.6891770062624897</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7126307303449648</v>
+        <v>0.7126307303450525</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.6076089524385814</v>
+        <v>0.6076089524378341</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.7097518752659593</v>
+        <v>0.7097518752668001</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6004590878665358</v>
+        <v>0.6004590878665694</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.6320217490456154</v>
+        <v>0.6320217490455542</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.5897793808965778</v>
+        <v>0.5897793808965797</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6388942695463179</v>
+        <v>0.6388942695424861</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.694029063854369</v>
+        <v>0.6940290638554664</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6313201398543193</v>
+        <v>0.6313201398514806</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6283475306100091</v>
+        <v>0.6283475306072275</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6953357134280952</v>
+        <v>0.6953357134310048</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5841161758445473</v>
+        <v>0.5841161758445454</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.64691854080063</v>
+        <v>0.6469185408029604</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -4415,130 +4415,130 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7139688171256732</v>
+        <v>0.7139688171247338</v>
       </c>
       <c r="D9" t="n">
-        <v>0.666122979817249</v>
+        <v>0.6661229798159614</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5557238459874958</v>
+        <v>0.555723845987496</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7582413124973842</v>
+        <v>0.7582413124973573</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7970164839864092</v>
+        <v>0.7970164839864473</v>
       </c>
       <c r="H9" t="n">
-        <v>0.579027239705181</v>
+        <v>0.5790272397051777</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7223042053087202</v>
+        <v>0.7223042053087779</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5784444228093319</v>
+        <v>0.5784444228093009</v>
       </c>
       <c r="K9" t="n">
-        <v>0.58805527657901</v>
+        <v>0.5880552765782935</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7669567655362904</v>
+        <v>0.7669567655361665</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5725976580575586</v>
+        <v>0.5725976580575686</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5839235512701747</v>
+        <v>0.5839235512702216</v>
       </c>
       <c r="O9" t="n">
         <v>0.5674387162950383</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5563021099641641</v>
+        <v>0.5563021099641616</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6854409674932392</v>
+        <v>0.6854409674958081</v>
       </c>
       <c r="R9" t="n">
-        <v>0.573110006885848</v>
+        <v>0.5731100068822986</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6592674483259564</v>
+        <v>0.6592674483163462</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5601230498862305</v>
+        <v>0.5601230498870582</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6895863539399583</v>
+        <v>0.6895863539410506</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5964159617045028</v>
+        <v>0.5964159617048443</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6912297300044959</v>
+        <v>0.691229730004327</v>
       </c>
       <c r="X9" t="n">
         <v>0.5748740778008251</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6836583459392354</v>
+        <v>0.6836583459391073</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6897524547898679</v>
+        <v>0.6897524547865489</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6315802183776518</v>
+        <v>0.6315802183789819</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6308937274798105</v>
+        <v>0.6308937274797343</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6234221605762381</v>
+        <v>0.623422160576238</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6215222110364726</v>
+        <v>0.6215222110364698</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6276845877846868</v>
+        <v>0.6276845877846824</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6453312853648835</v>
+        <v>0.6453312853643773</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6098533622559027</v>
+        <v>0.6098533622557603</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6146369798737121</v>
+        <v>0.6146369798737347</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6334557865292678</v>
+        <v>0.6334557865288395</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6853435084992235</v>
+        <v>0.6853435085008489</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.5892376340370502</v>
+        <v>0.589237634037062</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.673043830649805</v>
+        <v>0.6730438306501335</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7474400900625473</v>
+        <v>0.7474400900625735</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7189651438188125</v>
+        <v>0.7189651438190766</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.5891334691911118</v>
+        <v>0.5891334691910436</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7227431492240317</v>
+        <v>0.7227431492225987</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.584122103080854</v>
+        <v>0.5841221030808532</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.5778104823474177</v>
+        <v>0.5778104823517143</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -4546,130 +4546,130 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6426960775379941</v>
+        <v>0.64269607753689</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6822452845527582</v>
+        <v>0.6822452845517767</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7390731279089291</v>
+        <v>0.7390731279090712</v>
       </c>
       <c r="F10" t="n">
-        <v>0.690159576512521</v>
+        <v>0.6901595765125151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5764512485197135</v>
+        <v>0.5764512485197029</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5608328084375108</v>
+        <v>0.5608328084375138</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6198358928597638</v>
+        <v>0.6198358928596767</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5954030423688362</v>
+        <v>0.5954030423688179</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6567861210557808</v>
+        <v>0.6567861210575927</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5908422072607433</v>
+        <v>0.5908422072608551</v>
       </c>
       <c r="M10" t="n">
-        <v>0.706523927156507</v>
+        <v>0.7065239271566894</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7761946068408415</v>
+        <v>0.7761946068408637</v>
       </c>
       <c r="O10" t="n">
         <v>0.5720851869365872</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7532849575476412</v>
+        <v>0.7532849575475897</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.70719293017534</v>
+        <v>0.707192930174701</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5562831870691088</v>
+        <v>0.5562831870691086</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7033299395038087</v>
+        <v>0.7033299395055673</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5668633512254423</v>
+        <v>0.5668633512254425</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6423521285284199</v>
+        <v>0.6423521285283659</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7223964731729033</v>
+        <v>0.722396473172931</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6597992092053709</v>
+        <v>0.6597992092028516</v>
       </c>
       <c r="X10" t="n">
         <v>0.5782426642150921</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.622305646884562</v>
+        <v>0.6223056468845586</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6333854485566054</v>
+        <v>0.6333854485566017</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6975313340780667</v>
+        <v>0.6975313340782108</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6157954053784171</v>
+        <v>0.6157954053784099</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6240800308691861</v>
+        <v>0.6240800308691872</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6324320734535187</v>
+        <v>0.6324320734535209</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6302228119394943</v>
+        <v>0.6302228119395001</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6295949139781671</v>
+        <v>0.6295949139781661</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6263166590453315</v>
+        <v>0.6263166590453391</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6057500968925703</v>
+        <v>0.6057500968925698</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6099373456020128</v>
+        <v>0.6099373456017509</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6797575825283496</v>
+        <v>0.6797575825282888</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.601863159926009</v>
+        <v>0.6018631599260068</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.6305766998314296</v>
+        <v>0.630576699831384</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.6159808203239501</v>
+        <v>0.6159808203241168</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6443032133718366</v>
+        <v>0.644303213374376</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5906033302140311</v>
+        <v>0.5906033302140297</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.7083866187545953</v>
+        <v>0.7083866187535254</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5841143632937454</v>
+        <v>0.5841143632937453</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.7056717189360718</v>
+        <v>0.7056717189337399</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -4677,130 +4677,130 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6494147006143901</v>
+        <v>0.6494147006135387</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6600234569704597</v>
+        <v>0.6600234569658875</v>
       </c>
       <c r="E11" t="n">
-        <v>0.572086348890702</v>
+        <v>0.5720863488907016</v>
       </c>
       <c r="F11" t="n">
         <v>0.5726490892591329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6351266809660141</v>
+        <v>0.635126680969743</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5763127497762982</v>
+        <v>0.5763127497763</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6758581287850011</v>
+        <v>0.6758581287836556</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5785942814345395</v>
+        <v>0.578594281434537</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5750157146883791</v>
+        <v>0.5750157146883802</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6353012580546434</v>
+        <v>0.6353012580543738</v>
       </c>
       <c r="M11" t="n">
-        <v>0.57282861118828</v>
+        <v>0.5728286111882801</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6988838712271845</v>
+        <v>0.6988838712272127</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5693419939123613</v>
+        <v>0.5693419939123574</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5871175713242716</v>
+        <v>0.5871175713245155</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6566235070023406</v>
+        <v>0.6566235069990786</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6053725392823841</v>
+        <v>0.6053725392822774</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6492167043476129</v>
+        <v>0.6492167043489335</v>
       </c>
       <c r="T11" t="n">
-        <v>0.573715196778083</v>
+        <v>0.5737151967780836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5762176786263641</v>
+        <v>0.5762176786263616</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6522668393910325</v>
+        <v>0.6522668393909307</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7049975810715058</v>
+        <v>0.704997581069879</v>
       </c>
       <c r="X11" t="n">
-        <v>0.573250150865567</v>
+        <v>0.5732501508655669</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6136907433892501</v>
+        <v>0.6136907433892631</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.621099061880208</v>
+        <v>0.6210990618802015</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6928411136597488</v>
+        <v>0.6928411136597373</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7636579767362475</v>
+        <v>0.7636579767362208</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6900743061669106</v>
+        <v>0.6900743061665644</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6291309866419441</v>
+        <v>0.6291309866419429</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6181212551825297</v>
+        <v>0.6181212551825302</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6156173881169276</v>
+        <v>0.6156173881169289</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.6977255161485474</v>
+        <v>0.6977255161482769</v>
       </c>
       <c r="AH11" t="n">
         <v>0.6153841167671483</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.5997170026516172</v>
+        <v>0.5997170026516161</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.615058489264685</v>
+        <v>0.6150584892646851</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6910957721745982</v>
+        <v>0.6910957721743448</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6244253986743198</v>
+        <v>0.6244253986743157</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7102228929972106</v>
+        <v>0.7102228929972246</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.6773444555411148</v>
+        <v>0.6773444555393179</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.5897510858607955</v>
+        <v>0.5897510858607939</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.7015702745349576</v>
+        <v>0.7015702745344388</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5850619214234363</v>
+        <v>0.5850619214234389</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.7375243433726202</v>
+        <v>0.7375243433725649</v>
       </c>
     </row>
   </sheetData>
